--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/ClinicalUseDefinition-warning-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/ClinicalUseDefinition-warning-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -510,7 +510,7 @@
     <t>ClinicalUseDefinition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-eproduct-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/emedicinal-product-info/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="367">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -442,7 +442,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-ballot/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/5.0.0-snapshot3/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -485,7 +485,7 @@
     <t>Overall defining type of this clinical use definition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-ballot</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-use-definition-type|5.0.0-snapshot3</t>
   </si>
   <si>
     <t>(the type of IDMP class, out of Contraindication, Therapeutic Indication, Interactions, Undesirable Effects)</t>
@@ -670,6 +670,22 @@
     <t>(the link from Contraindication to Therapeutic Indication)</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.contraindication.applicability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression
+</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements</t>
+  </si>
+  <si>
+    <t>An expression that returns true or false, indicating whether the indication is applicable or not, after having applied its other elements.</t>
+  </si>
+  <si>
+    <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.contraindication.otherTherapy</t>
   </si>
   <si>
@@ -834,6 +850,9 @@
     <t>Therapeutic Indication.Undesirable Effects</t>
   </si>
   <si>
+    <t>ClinicalUseDefinition.indication.applicability</t>
+  </si>
+  <si>
     <t>ClinicalUseDefinition.indication.otherTherapy</t>
   </si>
   <si>
@@ -993,6 +1012,19 @@
   </si>
   <si>
     <t>Population Specifics</t>
+  </si>
+  <si>
+    <t>ClinicalUseDefinition.library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Library)
+</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition</t>
+  </si>
+  <si>
+    <t>Logic used by the clinical use definition.</t>
   </si>
   <si>
     <t>ClinicalUseDefinition.undesirableEffect</t>
@@ -1413,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM67"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1447,7 +1479,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="81.53515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.99609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -4017,7 +4049,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4026,18 +4058,20 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>74</v>
@@ -4092,7 +4126,7 @@
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
@@ -4101,7 +4135,7 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4112,10 +4146,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4126,7 +4160,7 @@
         <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4135,16 +4169,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4195,47 +4229,47 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4247,17 +4281,15 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4306,19 +4338,19 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4332,14 +4364,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4352,26 +4384,24 @@
         <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4419,7 +4449,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4440,47 +4470,51 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
       </c>
@@ -4504,13 +4538,13 @@
         <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>74</v>
@@ -4528,36 +4562,36 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4580,13 +4614,13 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4613,13 +4647,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4637,7 +4671,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -4652,7 +4686,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4663,10 +4697,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4674,10 +4708,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4689,13 +4723,13 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4722,13 +4756,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4746,10 +4780,10 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>83</v>
@@ -4761,7 +4795,7 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4772,10 +4806,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4786,7 +4820,7 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -4795,16 +4829,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4855,7 +4889,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>179</v>
+        <v>236</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4867,35 +4901,35 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4907,17 +4941,15 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -4966,19 +4998,19 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4992,14 +5024,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5012,26 +5044,24 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5079,7 +5109,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5100,47 +5130,51 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5164,13 +5198,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5188,36 +5222,36 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5243,10 +5277,10 @@
         <v>189</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5276,10 +5310,10 @@
         <v>192</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5297,7 +5331,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -5312,7 +5346,7 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5323,10 +5357,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5337,7 +5371,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5352,10 +5386,10 @@
         <v>189</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5385,10 +5419,10 @@
         <v>192</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5406,13 +5440,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5421,7 +5455,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5432,10 +5466,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5446,7 +5480,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5461,10 +5495,10 @@
         <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5491,13 +5525,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5515,13 +5549,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
@@ -5530,7 +5564,7 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5541,10 +5575,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5567,13 +5601,13 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5600,13 +5634,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5624,7 +5658,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -5664,7 +5698,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5676,13 +5710,13 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5739,7 +5773,7 @@
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
@@ -5748,7 +5782,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5759,10 +5793,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5785,13 +5819,13 @@
         <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5842,7 +5876,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5857,7 +5891,7 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5868,10 +5902,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5882,7 +5916,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5891,18 +5925,20 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -5951,7 +5987,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5966,7 +6002,7 @@
         <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>272</v>
+        <v>144</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5977,10 +6013,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5991,7 +6027,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>74</v>
@@ -6000,16 +6036,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>178</v>
+        <v>273</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6060,47 +6096,47 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6109,20 +6145,18 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6171,72 +6205,68 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6284,19 +6314,19 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6305,19 +6335,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6333,18 +6363,20 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6393,7 +6425,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>182</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6405,56 +6437,60 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6502,19 +6538,19 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6523,19 +6559,19 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6551,20 +6587,18 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6613,7 +6647,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>182</v>
+        <v>282</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6625,60 +6659,56 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6726,19 +6756,19 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6747,26 +6777,26 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -6775,18 +6805,20 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>74</v>
@@ -6811,13 +6843,13 @@
         <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>74</v>
@@ -6835,68 +6867,72 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>185</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
       </c>
@@ -6920,13 +6956,13 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>74</v>
@@ -6944,36 +6980,36 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6981,7 +7017,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>83</v>
@@ -6996,13 +7032,13 @@
         <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7032,10 +7068,10 @@
         <v>192</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7053,10 +7089,10 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>83</v>
@@ -7068,7 +7104,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7079,10 +7115,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7108,10 +7144,10 @@
         <v>155</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7141,10 +7177,10 @@
         <v>192</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7162,7 +7198,7 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
@@ -7177,7 +7213,7 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7188,10 +7224,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7202,7 +7238,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7214,13 +7250,13 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7250,10 +7286,10 @@
         <v>192</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7271,13 +7307,13 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
@@ -7286,7 +7322,7 @@
         <v>95</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7297,10 +7333,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7311,7 +7347,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7323,13 +7359,13 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>314</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7356,13 +7392,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>74</v>
+        <v>311</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7380,13 +7416,13 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
@@ -7395,7 +7431,7 @@
         <v>95</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7406,10 +7442,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7420,7 +7456,7 @@
         <v>75</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7432,13 +7468,13 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7465,13 +7501,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7489,13 +7525,13 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>74</v>
@@ -7504,7 +7540,7 @@
         <v>95</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7515,10 +7551,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7529,7 +7565,7 @@
         <v>75</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7538,16 +7574,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7598,40 +7634,40 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7647,20 +7683,18 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>325</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>74</v>
@@ -7709,7 +7743,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7721,60 +7755,56 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7822,36 +7852,36 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7871,16 +7901,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>327</v>
+        <v>178</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7907,13 +7937,13 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>328</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>74</v>
@@ -7931,7 +7961,7 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>325</v>
+        <v>179</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
@@ -7943,35 +7973,35 @@
         <v>74</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>74</v>
@@ -7980,18 +8010,20 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>332</v>
+        <v>130</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>74</v>
@@ -8016,13 +8048,13 @@
         <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>74</v>
@@ -8040,68 +8072,72 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>74</v>
+        <v>184</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
       </c>
@@ -8125,13 +8161,13 @@
         <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>341</v>
+        <v>74</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>74</v>
@@ -8149,36 +8185,36 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8186,7 +8222,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>83</v>
@@ -8201,13 +8237,13 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8234,13 +8270,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8258,7 +8294,7 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
@@ -8273,7 +8309,7 @@
         <v>95</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>144</v>
+        <v>340</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8284,10 +8320,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8307,16 +8343,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>177</v>
+        <v>342</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>178</v>
+        <v>343</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8343,13 +8379,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8367,7 +8403,7 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
@@ -8379,16 +8415,16 @@
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -8400,14 +8436,14 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8416,20 +8452,18 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>74</v>
@@ -8454,13 +8488,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8478,72 +8512,68 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8591,36 +8621,36 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>187</v>
+        <v>353</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8640,16 +8670,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>350</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>351</v>
+        <v>177</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8700,7 +8730,7 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>349</v>
+        <v>179</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
@@ -8712,35 +8742,35 @@
         <v>74</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>74</v>
@@ -8749,18 +8779,20 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>74</v>
@@ -8785,51 +8817,382 @@
         <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X70" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH67" t="s" s="2">
+      <c r="Y70" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH70" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
+      <c r="AI70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AL70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="368">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A single issue - either an indication, contraindication, interaction or an undesirable effect for a medicinal product, medication, device or procedure</t>
@@ -1641,13 +1645,13 @@
         <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1713,21 +1717,21 @@
         <v>74</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1738,7 +1742,7 @@
         <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>74</v>
@@ -1747,19 +1751,19 @@
         <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1809,13 +1813,13 @@
         <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>74</v>
@@ -1835,10 +1839,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1849,7 +1853,7 @@
         <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>74</v>
@@ -1858,16 +1862,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1918,19 +1922,19 @@
         <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>74</v>
@@ -1944,10 +1948,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1958,28 +1962,28 @@
         <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2029,19 +2033,19 @@
         <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>74</v>
@@ -2055,10 +2059,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2069,7 +2073,7 @@
         <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>74</v>
@@ -2081,16 +2085,16 @@
         <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2116,13 +2120,13 @@
         <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>74</v>
@@ -2140,19 +2144,19 @@
         <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>74</v>
@@ -2166,21 +2170,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>74</v>
@@ -2192,16 +2196,16 @@
         <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2251,19 +2255,19 @@
         <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>74</v>
@@ -2272,19 +2276,19 @@
         <v>74</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2303,16 +2307,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2362,7 +2366,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -2383,19 +2387,19 @@
         <v>74</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2414,16 +2418,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2473,7 +2477,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -2485,7 +2489,7 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>74</v>
@@ -2494,19 +2498,19 @@
         <v>74</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2519,25 +2523,25 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -2586,7 +2590,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -2598,7 +2602,7 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>74</v>
@@ -2607,15 +2611,15 @@
         <v>74</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2635,16 +2639,16 @@
         <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2695,7 +2699,7 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
@@ -2707,13 +2711,13 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>74</v>
@@ -2721,10 +2725,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2732,10 +2736,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -2744,16 +2748,16 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2765,7 +2769,7 @@
         <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>74</v>
@@ -2780,13 +2784,13 @@
         <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>74</v>
@@ -2804,22 +2808,22 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>74</v>
@@ -2830,10 +2834,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2853,16 +2857,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2889,13 +2893,13 @@
         <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>74</v>
@@ -2913,7 +2917,7 @@
         <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2925,10 +2929,10 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>74</v>
@@ -2939,10 +2943,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2950,7 +2954,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>76</v>
@@ -2962,16 +2966,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3022,7 +3026,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -3034,10 +3038,10 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>74</v>
@@ -3048,10 +3052,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3062,7 +3066,7 @@
         <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>74</v>
@@ -3071,16 +3075,16 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3107,13 +3111,13 @@
         <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>74</v>
@@ -3131,22 +3135,22 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>74</v>
@@ -3157,10 +3161,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3180,16 +3184,16 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3240,22 +3244,22 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>74</v>
@@ -3266,10 +3270,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3280,7 +3284,7 @@
         <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>74</v>
@@ -3292,13 +3296,13 @@
         <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3349,13 +3353,13 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>74</v>
@@ -3370,19 +3374,19 @@
         <v>74</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3401,16 +3405,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3460,7 +3464,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3472,7 +3476,7 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
@@ -3481,19 +3485,19 @@
         <v>74</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3506,25 +3510,25 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -3573,7 +3577,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -3585,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3594,15 +3598,15 @@
         <v>74</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3613,7 +3617,7 @@
         <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3622,16 +3626,16 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3658,13 +3662,13 @@
         <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>74</v>
@@ -3682,22 +3686,22 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3708,10 +3712,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3722,7 +3726,7 @@
         <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3731,16 +3735,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3767,13 +3771,13 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -3791,22 +3795,22 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3817,10 +3821,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3840,16 +3844,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3876,13 +3880,13 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3900,7 +3904,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3912,10 +3916,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3926,10 +3930,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3949,16 +3953,16 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4009,7 +4013,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -4021,10 +4025,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -4035,10 +4039,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4049,7 +4053,7 @@
         <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -4061,16 +4065,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4120,22 +4124,22 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -4146,10 +4150,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4169,16 +4173,16 @@
         <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4229,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4241,10 +4245,10 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4255,10 +4259,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4269,7 +4273,7 @@
         <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4281,13 +4285,13 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4338,13 +4342,13 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>74</v>
@@ -4359,19 +4363,19 @@
         <v>74</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4390,16 +4394,16 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4449,7 +4453,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -4461,7 +4465,7 @@
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4470,19 +4474,19 @@
         <v>74</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4495,25 +4499,25 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4562,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -4574,7 +4578,7 @@
         <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4583,15 +4587,15 @@
         <v>74</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4599,10 +4603,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4611,16 +4615,16 @@
         <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4647,13 +4651,13 @@
         <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>74</v>
@@ -4671,22 +4675,22 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4697,10 +4701,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4708,10 +4712,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4720,16 +4724,16 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4756,13 +4760,13 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>74</v>
@@ -4780,22 +4784,22 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4806,10 +4810,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4829,16 +4833,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4889,22 +4893,22 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4915,10 +4919,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4929,7 +4933,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4941,13 +4945,13 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4998,13 +5002,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
@@ -5019,19 +5023,19 @@
         <v>74</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5050,16 +5054,16 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5109,7 +5113,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -5121,7 +5125,7 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5130,19 +5134,19 @@
         <v>74</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5155,25 +5159,25 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
@@ -5222,7 +5226,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5234,7 +5238,7 @@
         <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5243,15 +5247,15 @@
         <v>74</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5262,7 +5266,7 @@
         <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -5271,16 +5275,16 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5307,13 +5311,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5331,22 +5335,22 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5357,10 +5361,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5371,7 +5375,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5380,16 +5384,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5416,13 +5420,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5440,22 +5444,22 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5466,10 +5470,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5489,16 +5493,16 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5525,13 +5529,13 @@
         <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>74</v>
@@ -5549,7 +5553,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5561,10 +5565,10 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5575,10 +5579,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5589,7 +5593,7 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5598,16 +5602,16 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5634,13 +5638,13 @@
         <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>74</v>
@@ -5658,22 +5662,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5684,10 +5688,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5698,7 +5702,7 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5707,16 +5711,16 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5767,22 +5771,22 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5793,10 +5797,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5816,16 +5820,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5876,7 +5880,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5888,10 +5892,10 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5902,10 +5906,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5916,7 +5920,7 @@
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5928,16 +5932,16 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -5987,22 +5991,22 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -6013,10 +6017,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6036,16 +6040,16 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6096,7 +6100,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -6108,10 +6112,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6122,10 +6126,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6145,16 +6149,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6205,22 +6209,22 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6231,10 +6235,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6245,7 +6249,7 @@
         <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>74</v>
@@ -6257,13 +6261,13 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6314,13 +6318,13 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>74</v>
@@ -6335,19 +6339,19 @@
         <v>74</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6366,16 +6370,16 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6425,7 +6429,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -6437,7 +6441,7 @@
         <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6446,19 +6450,19 @@
         <v>74</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6471,25 +6475,25 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>74</v>
@@ -6538,7 +6542,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -6550,7 +6554,7 @@
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6559,15 +6563,15 @@
         <v>74</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6587,16 +6591,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6647,7 +6651,7 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>75</v>
@@ -6659,10 +6663,10 @@
         <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6673,10 +6677,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6687,7 +6691,7 @@
         <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>
@@ -6699,13 +6703,13 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6756,13 +6760,13 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>74</v>
@@ -6777,19 +6781,19 @@
         <v>74</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6808,16 +6812,16 @@
         <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6867,7 +6871,7 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
@@ -6879,7 +6883,7 @@
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6888,19 +6892,19 @@
         <v>74</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6913,25 +6917,25 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>74</v>
@@ -6980,7 +6984,7 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>75</v>
@@ -6992,7 +6996,7 @@
         <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7001,15 +7005,15 @@
         <v>74</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7017,10 +7021,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7029,16 +7033,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7065,13 +7069,13 @@
         <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>74</v>
@@ -7089,22 +7093,22 @@
         <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7115,10 +7119,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7129,7 +7133,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7138,16 +7142,16 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7174,13 +7178,13 @@
         <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>74</v>
@@ -7198,22 +7202,22 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7224,10 +7228,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7238,7 +7242,7 @@
         <v>75</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7247,16 +7251,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7283,13 +7287,13 @@
         <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>74</v>
@@ -7307,22 +7311,22 @@
         <v>74</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7333,10 +7337,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7347,7 +7351,7 @@
         <v>75</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7356,16 +7360,16 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7392,13 +7396,13 @@
         <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>74</v>
@@ -7416,22 +7420,22 @@
         <v>74</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7442,10 +7446,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7465,16 +7469,16 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7501,13 +7505,13 @@
         <v>74</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>74</v>
@@ -7525,7 +7529,7 @@
         <v>74</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>75</v>
@@ -7537,10 +7541,10 @@
         <v>74</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7551,10 +7555,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7574,16 +7578,16 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7634,7 +7638,7 @@
         <v>74</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>75</v>
@@ -7646,10 +7650,10 @@
         <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -7660,10 +7664,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7683,16 +7687,16 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7743,7 +7747,7 @@
         <v>74</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>75</v>
@@ -7755,10 +7759,10 @@
         <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>74</v>
@@ -7769,10 +7773,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7792,16 +7796,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7852,22 +7856,22 @@
         <v>74</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7878,10 +7882,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7892,7 +7896,7 @@
         <v>75</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>74</v>
@@ -7904,13 +7908,13 @@
         <v>74</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7961,13 +7965,13 @@
         <v>74</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>74</v>
@@ -7982,19 +7986,19 @@
         <v>74</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8013,16 +8017,16 @@
         <v>74</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8072,7 +8076,7 @@
         <v>74</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>75</v>
@@ -8084,7 +8088,7 @@
         <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8093,19 +8097,19 @@
         <v>74</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8118,25 +8122,25 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>74</v>
@@ -8185,7 +8189,7 @@
         <v>74</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>75</v>
@@ -8197,7 +8201,7 @@
         <v>74</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8206,15 +8210,15 @@
         <v>74</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8225,7 +8229,7 @@
         <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8234,16 +8238,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8270,13 +8274,13 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>74</v>
@@ -8294,22 +8298,22 @@
         <v>74</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8320,10 +8324,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8334,7 +8338,7 @@
         <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8343,16 +8347,16 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8379,13 +8383,13 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>74</v>
@@ -8403,22 +8407,22 @@
         <v>74</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8429,10 +8433,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8443,7 +8447,7 @@
         <v>75</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8452,16 +8456,16 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8488,13 +8492,13 @@
         <v>74</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>74</v>
@@ -8512,22 +8516,22 @@
         <v>74</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>74</v>
@@ -8538,10 +8542,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8549,10 +8553,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>74</v>
@@ -8561,16 +8565,16 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8621,22 +8625,22 @@
         <v>74</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8647,10 +8651,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8661,7 +8665,7 @@
         <v>75</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>74</v>
@@ -8673,13 +8677,13 @@
         <v>74</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8730,13 +8734,13 @@
         <v>74</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>74</v>
@@ -8751,19 +8755,19 @@
         <v>74</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8782,16 +8786,16 @@
         <v>74</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8841,7 +8845,7 @@
         <v>74</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>75</v>
@@ -8853,7 +8857,7 @@
         <v>74</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8862,19 +8866,19 @@
         <v>74</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8887,25 +8891,25 @@
         <v>74</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>74</v>
@@ -8954,7 +8958,7 @@
         <v>74</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>75</v>
@@ -8966,7 +8970,7 @@
         <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -8975,15 +8979,15 @@
         <v>74</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8994,7 +8998,7 @@
         <v>75</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -9003,16 +9007,16 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9063,22 +9067,22 @@
         <v>74</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9089,10 +9093,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9103,7 +9107,7 @@
         <v>75</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9112,16 +9116,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9148,13 +9152,13 @@
         <v>74</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>74</v>
@@ -9172,22 +9176,22 @@
         <v>74</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
+++ b/branches/master/StructureDefinition-ClinicalUseDefinition-warning-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
